--- a/operateur.xlsx
+++ b/operateur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_ikonate_etu_cvm_qc_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{88667798-E73D-491A-87DF-79BBC676DFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE76315C-AAEE-4B71-BADA-3EFF70D3A832}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4242CBD-B032-4840-A03F-E5E020478B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2100" windowWidth="21600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="570" windowWidth="21600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultats attendus" sheetId="6" r:id="rId1"/>
@@ -2740,6 +2740,58 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
@@ -2752,18 +2804,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
@@ -2792,14 +2832,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -2823,74 +2855,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -2959,6 +2923,42 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3359,41 +3359,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="187"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="187"/>
+      <c r="AH2" s="187"/>
     </row>
     <row r="3" spans="2:34" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -3404,122 +3404,122 @@
     </row>
     <row r="4" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:34" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="L5" s="176" t="s">
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="L5" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="R5" s="180" t="s">
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="R5" s="190" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="180"/>
-      <c r="AC5" s="180"/>
-      <c r="AD5" s="180"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="180"/>
-      <c r="AG5" s="180"/>
-      <c r="AH5" s="180"/>
+      <c r="S5" s="190"/>
+      <c r="T5" s="190"/>
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
+      <c r="W5" s="190"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="190"/>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="190"/>
+      <c r="AH5" s="190"/>
     </row>
     <row r="6" spans="2:34" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="181" t="s">
+      <c r="E7" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="193" t="s">
+      <c r="F7" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="184"/>
-      <c r="I7" s="195" t="s">
+      <c r="H7" s="194"/>
+      <c r="I7" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="196"/>
+      <c r="J7" s="175"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="185" t="s">
+      <c r="L7" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="186"/>
-      <c r="N7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="186"/>
-      <c r="P7" s="199" t="s">
+      <c r="M7" s="196"/>
+      <c r="N7" s="195" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="196"/>
+      <c r="P7" s="183" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="187" t="s">
+      <c r="R7" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="188"/>
+      <c r="S7" s="177"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="187" t="s">
+      <c r="U7" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="188"/>
-      <c r="W7" s="187" t="s">
+      <c r="V7" s="177"/>
+      <c r="W7" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="187" t="s">
+      <c r="X7" s="177"/>
+      <c r="Y7" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="187" t="s">
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="187" t="s">
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="187" t="s">
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="188"/>
+      <c r="AF7" s="177"/>
       <c r="AG7" s="11"/>
-      <c r="AH7" s="201" t="s">
+      <c r="AH7" s="185" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="198"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="194"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="202"/>
       <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="O8" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="200"/>
+      <c r="P8" s="184"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="20" t="s">
         <v>9</v>
@@ -3591,7 +3591,7 @@
         <v>40</v>
       </c>
       <c r="AG8" s="12"/>
-      <c r="AH8" s="202"/>
+      <c r="AH8" s="186"/>
     </row>
     <row r="9" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="37" t="s">
@@ -5595,46 +5595,46 @@
       <c r="AH28" s="4"/>
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="177" t="s">
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="179"/>
-      <c r="G29" s="177" t="s">
+      <c r="F29" s="180"/>
+      <c r="G29" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="179"/>
-      <c r="R29" s="177" t="s">
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="179"/>
+      <c r="P29" s="180"/>
+      <c r="R29" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="178"/>
-      <c r="V29" s="178"/>
-      <c r="W29" s="178"/>
-      <c r="X29" s="178"/>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="178"/>
-      <c r="AA29" s="178"/>
-      <c r="AB29" s="178"/>
-      <c r="AC29" s="178"/>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="178"/>
-      <c r="AF29" s="178"/>
-      <c r="AG29" s="178"/>
-      <c r="AH29" s="179"/>
+      <c r="S29" s="179"/>
+      <c r="T29" s="179"/>
+      <c r="U29" s="179"/>
+      <c r="V29" s="179"/>
+      <c r="W29" s="179"/>
+      <c r="X29" s="179"/>
+      <c r="Y29" s="179"/>
+      <c r="Z29" s="179"/>
+      <c r="AA29" s="179"/>
+      <c r="AB29" s="179"/>
+      <c r="AC29" s="179"/>
+      <c r="AD29" s="179"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="179"/>
+      <c r="AG29" s="179"/>
+      <c r="AH29" s="180"/>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E31" s="8"/>
@@ -5947,16 +5947,6 @@
     <sortCondition ref="AL9"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="R29:AH29"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AH7:AH8"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="L5:P5"/>
@@ -5973,6 +5963,16 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="R29:AH29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AH7:AH8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
@@ -5987,7 +5987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="AG9" sqref="AG9:AH9"/>
     </sheetView>
   </sheetViews>
@@ -6013,41 +6013,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:34" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="203"/>
     </row>
     <row r="3" spans="2:34" ht="10.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="85" t="s">
@@ -6062,17 +6062,17 @@
     </row>
     <row r="4" spans="2:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:34" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="225" t="s">
+      <c r="B5" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="225"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
       <c r="L5" s="144" t="s">
         <v>36</v>
       </c>
@@ -6080,25 +6080,25 @@
       <c r="N5" s="107"/>
       <c r="O5" s="107"/>
       <c r="P5" s="108"/>
-      <c r="R5" s="232" t="s">
+      <c r="R5" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="233"/>
-      <c r="T5" s="233"/>
-      <c r="U5" s="233"/>
-      <c r="V5" s="233"/>
-      <c r="W5" s="233"/>
-      <c r="X5" s="233"/>
-      <c r="Y5" s="233"/>
-      <c r="Z5" s="233"/>
-      <c r="AA5" s="233"/>
-      <c r="AB5" s="233"/>
-      <c r="AC5" s="233"/>
-      <c r="AD5" s="233"/>
-      <c r="AE5" s="233"/>
-      <c r="AF5" s="233"/>
-      <c r="AG5" s="233"/>
-      <c r="AH5" s="233"/>
+      <c r="S5" s="221"/>
+      <c r="T5" s="221"/>
+      <c r="U5" s="221"/>
+      <c r="V5" s="221"/>
+      <c r="W5" s="221"/>
+      <c r="X5" s="221"/>
+      <c r="Y5" s="221"/>
+      <c r="Z5" s="221"/>
+      <c r="AA5" s="221"/>
+      <c r="AB5" s="221"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="221"/>
+      <c r="AE5" s="221"/>
+      <c r="AF5" s="221"/>
+      <c r="AG5" s="221"/>
+      <c r="AH5" s="221"/>
     </row>
     <row r="6" spans="2:34" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="L6" s="109"/>
@@ -6121,85 +6121,85 @@
       <c r="AD6" s="143"/>
       <c r="AE6" s="143"/>
       <c r="AF6" s="143"/>
-      <c r="AG6" s="207" t="s">
+      <c r="AG6" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="AH6" s="208"/>
+      <c r="AH6" s="227"/>
     </row>
     <row r="7" spans="2:34" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="216" t="s">
+      <c r="C7" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="222" t="s">
+      <c r="F7" s="210" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="103" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="104"/>
-      <c r="I7" s="218" t="s">
+      <c r="I7" s="206" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="224"/>
+      <c r="J7" s="212"/>
       <c r="K7" s="130"/>
-      <c r="L7" s="226" t="s">
+      <c r="L7" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="227"/>
-      <c r="N7" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="227"/>
-      <c r="P7" s="230" t="s">
+      <c r="M7" s="215"/>
+      <c r="N7" s="214" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="215"/>
+      <c r="P7" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="213" t="s">
+      <c r="R7" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="204"/>
+      <c r="S7" s="223"/>
       <c r="T7" s="146"/>
-      <c r="U7" s="203" t="s">
+      <c r="U7" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="204"/>
-      <c r="W7" s="203" t="s">
+      <c r="V7" s="223"/>
+      <c r="W7" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="204"/>
-      <c r="Y7" s="203" t="s">
+      <c r="X7" s="223"/>
+      <c r="Y7" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="204"/>
-      <c r="AA7" s="203" t="s">
+      <c r="Z7" s="223"/>
+      <c r="AA7" s="222" t="s">
         <v>44</v>
       </c>
-      <c r="AB7" s="204"/>
-      <c r="AC7" s="203" t="s">
+      <c r="AB7" s="223"/>
+      <c r="AC7" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" s="204"/>
-      <c r="AE7" s="203" t="s">
+      <c r="AD7" s="223"/>
+      <c r="AE7" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="204"/>
-      <c r="AG7" s="209"/>
-      <c r="AH7" s="210"/>
+      <c r="AF7" s="223"/>
+      <c r="AG7" s="228"/>
+      <c r="AH7" s="229"/>
     </row>
     <row r="8" spans="2:34" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="217"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="223"/>
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="207"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="211"/>
       <c r="G8" s="105" t="s">
         <v>9</v>
       </c>
@@ -6213,28 +6213,28 @@
         <v>4</v>
       </c>
       <c r="K8" s="130"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="228"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="228"/>
-      <c r="P8" s="231"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="206"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="216"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="219"/>
+      <c r="R8" s="233"/>
+      <c r="S8" s="225"/>
       <c r="T8" s="147"/>
-      <c r="U8" s="205"/>
-      <c r="V8" s="206"/>
-      <c r="W8" s="205"/>
-      <c r="X8" s="206"/>
-      <c r="Y8" s="205"/>
-      <c r="Z8" s="206"/>
-      <c r="AA8" s="205"/>
-      <c r="AB8" s="206"/>
-      <c r="AC8" s="205"/>
-      <c r="AD8" s="206"/>
-      <c r="AE8" s="205"/>
-      <c r="AF8" s="206"/>
-      <c r="AG8" s="211"/>
-      <c r="AH8" s="212"/>
+      <c r="U8" s="224"/>
+      <c r="V8" s="225"/>
+      <c r="W8" s="224"/>
+      <c r="X8" s="225"/>
+      <c r="Y8" s="224"/>
+      <c r="Z8" s="225"/>
+      <c r="AA8" s="224"/>
+      <c r="AB8" s="225"/>
+      <c r="AC8" s="224"/>
+      <c r="AD8" s="225"/>
+      <c r="AE8" s="224"/>
+      <c r="AF8" s="225"/>
+      <c r="AG8" s="230"/>
+      <c r="AH8" s="231"/>
     </row>
     <row r="9" spans="2:34" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="90" t="s">
@@ -8322,6 +8322,10 @@
     <row r="33" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="U7:V8"/>
+    <mergeCell ref="W7:X8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB8"/>
     <mergeCell ref="B2:AH2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -8338,10 +8342,6 @@
     <mergeCell ref="AE7:AF8"/>
     <mergeCell ref="AG6:AH8"/>
     <mergeCell ref="R7:S8"/>
-    <mergeCell ref="U7:V8"/>
-    <mergeCell ref="W7:X8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:J25">
     <cfRule type="expression" dxfId="0" priority="1">
